--- a/Data/database/museum_events.xlsx
+++ b/Data/database/museum_events.xlsx
@@ -535,7 +535,9 @@
           <t>Explore ancient civilizations via VR and 3D displays</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
